--- a/outputs-HGR-r202-archive/g__Corynebacterium.xlsx
+++ b/outputs-HGR-r202-archive/g__Corynebacterium.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,38 +504,38 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT449.fa</t>
+          <t>even_MAG-GUT48805.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02601600079348131</v>
+        <v>0.02703763237440648</v>
       </c>
       <c r="C2" t="n">
-        <v>2.515781655284754e-14</v>
+        <v>0.07586552406006299</v>
       </c>
       <c r="D2" t="n">
-        <v>2.515781655284754e-14</v>
+        <v>0.07586552406006299</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2346465973659789</v>
+        <v>0.244124424105115</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001393900461040022</v>
+        <v>0.004644003108574341</v>
       </c>
       <c r="G2" t="n">
-        <v>2.55416449401323e-14</v>
+        <v>0.004206883876618984</v>
       </c>
       <c r="H2" t="n">
-        <v>0.158052058088355</v>
+        <v>0.01306232061771265</v>
       </c>
       <c r="I2" t="n">
-        <v>2.554164494013231e-14</v>
+        <v>0.004206883876618993</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5798914432910434</v>
+        <v>0.5509868039208277</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5798914432910434</v>
+        <v>0.5509868039208277</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -551,38 +551,38 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48805.fa</t>
+          <t>even_MAG-GUT49046.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02703763237440648</v>
+        <v>0.02730460622545956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07586552406006299</v>
+        <v>0.07718165933973094</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07586552406006299</v>
+        <v>0.07718165933973094</v>
       </c>
       <c r="E3" t="n">
-        <v>0.244124424105115</v>
+        <v>0.2517493623722509</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004644003108574341</v>
+        <v>0.004595356970723288</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004206883876618984</v>
+        <v>0.004303926176949933</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01306232061771265</v>
+        <v>0.008897560492336355</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004206883876618993</v>
+        <v>0.004303926176949933</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5509868039208277</v>
+        <v>0.5444819429058682</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5509868039208277</v>
+        <v>0.5444819429058682</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -590,53 +590,6 @@
         </is>
       </c>
       <c r="M3" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT49046.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.02730460622545956</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.07718165933973094</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.07718165933973094</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2517493623722509</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.004595356970723288</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.004303926176949933</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.008897560492336355</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.004303926176949933</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5444819429058682</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.5444819429058682</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>s__Corynebacterium sp900539985</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
         <is>
           <t>s__Corynebacterium sp900539985</t>
         </is>
